--- a/calificaciones.xlsx
+++ b/calificaciones.xlsx
@@ -117,13 +117,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,180 +401,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="26.140625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>2018100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>85</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>78</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>92</v>
       </c>
-      <c r="G2" s="1">
-        <f>AVERAGE(D2:F2)</f>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G5" si="0" xml:space="preserve"> ROUND(AVERAGE(D2:F2),2)</f>
         <v>85</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>60</v>
       </c>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>2018102</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>95</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>82</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>89</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G5" si="0">AVERAGE(D3:F3)</f>
-        <v>88.666666666666671</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>88.67</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
         <v>70</v>
       </c>
+      <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>2018106</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>79</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>85</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>85</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>85</v>
       </c>
+      <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2017456</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>88</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>90</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>84</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>87.333333333333329</v>
-      </c>
-      <c r="H5" s="3" t="s">
+        <v>87.33</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J5">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>74</v>
       </c>
+      <c r="K5" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/calificaciones.xlsx
+++ b/calificaciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Nombre</t>
   </si>
@@ -25,15 +25,6 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>juanperez@gmail.com</t>
-  </si>
-  <si>
-    <t>ana@gmail.com</t>
-  </si>
-  <si>
-    <t>Carlos@gmail.com</t>
-  </si>
-  <si>
     <t>hmolinaa@unah.hn</t>
   </si>
   <si>
@@ -55,18 +46,12 @@
     <t>MM 540</t>
   </si>
   <si>
-    <t>Juan Perez</t>
-  </si>
-  <si>
     <t>Ana Garcia</t>
   </si>
   <si>
     <t>Carlos Omar</t>
   </si>
   <si>
-    <t>Henrry Morazan</t>
-  </si>
-  <si>
     <t>Profesor</t>
   </si>
   <si>
@@ -74,13 +59,22 @@
   </si>
   <si>
     <t>Reposicion</t>
+  </si>
+  <si>
+    <t>Merary Garcia</t>
+  </si>
+  <si>
+    <t>merarygarcia1301@gmail.com</t>
+  </si>
+  <si>
+    <t>Henrry Molina Amaya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +86,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,8 +116,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -126,11 +129,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,17 +406,17 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
@@ -427,40 +429,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>2018100</v>
+        <v>20181003215</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>85</v>
@@ -475,11 +477,11 @@
         <f t="shared" ref="G2:G5" si="0" xml:space="preserve"> ROUND(AVERAGE(D2:F2),2)</f>
         <v>85</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3">
         <v>60</v>
@@ -488,13 +490,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>2018102</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>95</v>
@@ -508,9 +510,6 @@
       <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>88.67</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3">
@@ -520,13 +519,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>2018106</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>79</v>
@@ -540,9 +539,6 @@
       <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>83</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
@@ -552,13 +548,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>2017456</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>88</v>
@@ -574,7 +570,7 @@
         <v>87.33</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3">
@@ -586,7 +582,10 @@
       <c r="H9" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>